--- a/biology/Botanique/Cornelis_Corneliszoon_van_Uitgeest/Cornelis_Corneliszoon_van_Uitgeest.xlsx
+++ b/biology/Botanique/Cornelis_Corneliszoon_van_Uitgeest/Cornelis_Corneliszoon_van_Uitgeest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornelis Corneliszoon van Uitgeest ou Krelis Lootsje (Uitgeest, ca. 1550 - ca. 1607) a inventé la scierie à vent, en néerlandais houtzaagmolen. Utilisant un vilebrequin dans un moulin à vent, un mouvement de rotation a été converti en un mouvement de haut en bas. Les lames de scie sont entraînées de cette manière et les planches peuvent être coupées à grande échelle et avec une grande précision. 
-L'invention de Corneliszoon a ensuite été améliorée en une construction intégrée, la scierie à vent dite paltrok. Ce type de scierie a été d'une grande importance pour la construction des navires du VOC et du WIC. Le moulin fabriquant des planches beaucoup plus rapidement qu'auparavant, la construction navale a gagné en rapidité: plus de navires pouvaient être construits en moins de temps. L'invention a donc contribué de manière significative à la constitution d'une flotte marchande dépassant celles de tous les autres pays réunis[1] et au boom économique de la République des Sept Pays-Bas unis au XVIIe siècle.
+L'invention de Corneliszoon a ensuite été améliorée en une construction intégrée, la scierie à vent dite paltrok. Ce type de scierie a été d'une grande importance pour la construction des navires du VOC et du WIC. Le moulin fabriquant des planches beaucoup plus rapidement qu'auparavant, la construction navale a gagné en rapidité: plus de navires pouvaient être construits en moins de temps. L'invention a donc contribué de manière significative à la constitution d'une flotte marchande dépassant celles de tous les autres pays réunis et au boom économique de la République des Sept Pays-Bas unis au XVIIe siècle.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corneliszoon obtient un brevet pour la scierie à bois le 15 décembre 1593, pour le vilebrequin, le 6 décembre 1597. En plus de l'invention de la scierie, Cornelis Corneliszoon possède plusieurs brevets à son nom, dont un moulin à huile à ribes, un manège et le précurseur de la pompe centrifuge . 
 En 1592, Corneliszoon a construit une première scierie: 't Juffertje. C'était un petit moulin à pivot creux (wipmolen) avec une scierie attenante. Celui-ci a été remplacé en 1594 par un petit moulin qui flottait sur un radeau. Le moulin a été vendu en 1595 et déplacé à Zaandam en 1596. Un autre moulin a été construit à Alkmaar, dont les restes ont été accidentellement découverts en 2004, lors de fouilles au Noordhollandsch Kanaal . 
